--- a/data/output/low_noisy/results/ssim.xlsx
+++ b/data/output/low_noisy/results/ssim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\low_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E462F2-056C-48FA-AB72-A4809E80DD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB8712-5CCF-4E90-992E-D35212ED5CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,6 +60,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -415,7 +416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -435,553 +438,553 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.93575813699999999</v>
+        <v>0.93581348333930992</v>
       </c>
       <c r="B2">
-        <v>0.93999713699999998</v>
+        <v>0.9402025439656736</v>
       </c>
       <c r="C2">
-        <v>0.94115866299999995</v>
+        <v>0.94069216562838898</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.95190540199999996</v>
+        <v>0.95190338696270149</v>
       </c>
       <c r="B3">
-        <v>0.95946151099999999</v>
+        <v>0.95963640963134478</v>
       </c>
       <c r="C3">
-        <v>0.96008724300000003</v>
+        <v>0.9603628397284224</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.93238177099999997</v>
+        <v>0.93232419124638177</v>
       </c>
       <c r="B4">
-        <v>0.94058080799999999</v>
+        <v>0.94055694336907403</v>
       </c>
       <c r="C4">
-        <v>0.93741350499999998</v>
+        <v>0.93791762593462458</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.94067621800000001</v>
+        <v>0.94058307278492725</v>
       </c>
       <c r="B5">
-        <v>0.94552636099999998</v>
+        <v>0.94551594690464924</v>
       </c>
       <c r="C5">
-        <v>0.94386471599999999</v>
+        <v>0.94399417699788202</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.92823048799999996</v>
+        <v>0.92880104438278355</v>
       </c>
       <c r="B6">
-        <v>0.93660218299999998</v>
+        <v>0.93716194295279787</v>
       </c>
       <c r="C6">
-        <v>0.938499745</v>
+        <v>0.93919757227849499</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.93927841700000003</v>
+        <v>0.93903367493567813</v>
       </c>
       <c r="B7">
-        <v>0.94764099700000004</v>
+        <v>0.94735331726257788</v>
       </c>
       <c r="C7">
-        <v>0.94773513899999995</v>
+        <v>0.94772133914343482</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.94888408999999996</v>
+        <v>0.94862290058956211</v>
       </c>
       <c r="B8">
-        <v>0.950121192</v>
+        <v>0.94932974900719092</v>
       </c>
       <c r="C8">
-        <v>0.94082551800000003</v>
+        <v>0.93909647827195142</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.94929648099999997</v>
+        <v>0.94910263258299377</v>
       </c>
       <c r="B9">
-        <v>0.95255113599999996</v>
+        <v>0.95244105243611277</v>
       </c>
       <c r="C9">
-        <v>0.90890488400000002</v>
+        <v>0.90771916390434693</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.95863724800000005</v>
+        <v>0.95850108297091485</v>
       </c>
       <c r="B10">
-        <v>0.95909509699999995</v>
+        <v>0.95874121054500383</v>
       </c>
       <c r="C10">
-        <v>0.964850192</v>
+        <v>0.9645189919105579</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.96082724799999997</v>
+        <v>0.9607767513137212</v>
       </c>
       <c r="B11">
-        <v>0.96254002599999999</v>
+        <v>0.96235647594703755</v>
       </c>
       <c r="C11">
-        <v>0.956797813</v>
+        <v>0.95505530949946582</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.94376311800000001</v>
+        <v>0.9439798123067088</v>
       </c>
       <c r="B12">
-        <v>0.94937465200000004</v>
+        <v>0.94917896828831361</v>
       </c>
       <c r="C12">
-        <v>0.95899011899999997</v>
+        <v>0.95875018981735782</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.94531721199999996</v>
+        <v>0.94581286931352504</v>
       </c>
       <c r="B13">
-        <v>0.952539625</v>
+        <v>0.95287603765494444</v>
       </c>
       <c r="C13">
-        <v>0.927257848</v>
+        <v>0.92774566866124231</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.92875695000000003</v>
+        <v>0.92928909848138208</v>
       </c>
       <c r="B14">
-        <v>0.93712508299999997</v>
+        <v>0.93750976597188473</v>
       </c>
       <c r="C14">
-        <v>0.92566007900000002</v>
+        <v>0.92568016302657752</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.95358838300000004</v>
+        <v>0.95396895099960743</v>
       </c>
       <c r="B15">
-        <v>0.95992898800000004</v>
+        <v>0.95967320637197817</v>
       </c>
       <c r="C15">
-        <v>0.96825261699999998</v>
+        <v>0.96803436518621633</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.96598480399999997</v>
+        <v>0.96606687568527494</v>
       </c>
       <c r="B16">
-        <v>0.96681233</v>
+        <v>0.96678790393122438</v>
       </c>
       <c r="C16">
-        <v>0.92391040700000004</v>
+        <v>0.92576274321240948</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.94469848000000001</v>
+        <v>0.94422791273893303</v>
       </c>
       <c r="B17">
-        <v>0.94529731900000002</v>
+        <v>0.94480492538616578</v>
       </c>
       <c r="C17">
-        <v>0.91121777100000001</v>
+        <v>0.91056841384560783</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.96241438999999995</v>
+        <v>0.96224246350296749</v>
       </c>
       <c r="B18">
-        <v>0.96289013199999995</v>
+        <v>0.96279082435734564</v>
       </c>
       <c r="C18">
-        <v>0.73771419100000002</v>
+        <v>0.73583734865388084</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.94837981000000005</v>
+        <v>0.94839770921711997</v>
       </c>
       <c r="B19">
-        <v>0.95285532399999995</v>
+        <v>0.95302986335679618</v>
       </c>
       <c r="C19">
-        <v>0.93782251100000003</v>
+        <v>0.93857167577407885</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.95479640700000001</v>
+        <v>0.95526558969022946</v>
       </c>
       <c r="B20">
-        <v>0.95596569399999998</v>
+        <v>0.95633305826482939</v>
       </c>
       <c r="C20">
-        <v>0.88538491399999997</v>
+        <v>0.88296851597715298</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.94955571299999997</v>
+        <v>0.94958846423909071</v>
       </c>
       <c r="B21">
-        <v>0.95394718000000001</v>
+        <v>0.95413078685344543</v>
       </c>
       <c r="C21">
-        <v>0.947130578</v>
+        <v>0.94549491870613722</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.94422990699999998</v>
+        <v>0.94447006326689276</v>
       </c>
       <c r="B22">
-        <v>0.94577847599999998</v>
+        <v>0.94603743897208059</v>
       </c>
       <c r="C22">
-        <v>0.92127943800000001</v>
+        <v>0.92208945226195271</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.93990219600000002</v>
+        <v>0.93981876436266087</v>
       </c>
       <c r="B23">
-        <v>0.94133219800000001</v>
+        <v>0.9409110047306638</v>
       </c>
       <c r="C23">
-        <v>0.93326033600000002</v>
+        <v>0.93337993579642731</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.935128933</v>
+        <v>0.93521848903221072</v>
       </c>
       <c r="B24">
-        <v>0.92950995000000003</v>
+        <v>0.93051818071118442</v>
       </c>
       <c r="C24">
-        <v>0.89885823099999995</v>
+        <v>0.89683973258813454</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.93945336300000004</v>
+        <v>0.93938114755635782</v>
       </c>
       <c r="B25">
-        <v>0.94391045600000001</v>
+        <v>0.94386062891590183</v>
       </c>
       <c r="C25">
-        <v>0.95124199600000003</v>
+        <v>0.95127462983434596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.93880481699999996</v>
+        <v>0.93849177005562212</v>
       </c>
       <c r="B26">
-        <v>0.94016273699999997</v>
+        <v>0.939792703562778</v>
       </c>
       <c r="C26">
-        <v>0.94163305500000005</v>
+        <v>0.94137805212790893</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.93308246800000005</v>
+        <v>0.93302874337118791</v>
       </c>
       <c r="B27">
-        <v>0.93519763899999997</v>
+        <v>0.93648872551756313</v>
       </c>
       <c r="C27">
-        <v>0.94317146200000002</v>
+        <v>0.94304378841858583</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.92024295199999995</v>
+        <v>0.91972718508631646</v>
       </c>
       <c r="B28">
-        <v>0.93351806000000004</v>
+        <v>0.93334428287369853</v>
       </c>
       <c r="C28">
-        <v>0.935707925</v>
+        <v>0.9359665052312871</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.93533886300000002</v>
+        <v>0.9355924643314999</v>
       </c>
       <c r="B29">
-        <v>0.93665625799999996</v>
+        <v>0.93637095869748299</v>
       </c>
       <c r="C29">
-        <v>0.94043469700000004</v>
+        <v>0.94040159717672667</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.928668983</v>
+        <v>0.92867835429991785</v>
       </c>
       <c r="B30">
-        <v>0.93293841099999997</v>
+        <v>0.9327857218861848</v>
       </c>
       <c r="C30">
-        <v>0.92175138000000001</v>
+        <v>0.92189150661694796</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.961792643</v>
+        <v>0.96175818652490741</v>
       </c>
       <c r="B31">
-        <v>0.96207231500000001</v>
+        <v>0.96209156128002138</v>
       </c>
       <c r="C31">
-        <v>0.80485652900000004</v>
+        <v>0.80270434533377721</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.93107327500000003</v>
+        <v>0.93085454270775125</v>
       </c>
       <c r="B32">
-        <v>0.93584925699999999</v>
+        <v>0.93592002358085735</v>
       </c>
       <c r="C32">
-        <v>0.90748706300000004</v>
+        <v>0.90770645961199936</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.96188992100000004</v>
+        <v>0.961825176037441</v>
       </c>
       <c r="B33">
-        <v>0.96150897099999999</v>
+        <v>0.96152743494395809</v>
       </c>
       <c r="C33">
-        <v>0.79276800800000002</v>
+        <v>0.79317654864011411</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.92944828800000001</v>
+        <v>0.92804144487377616</v>
       </c>
       <c r="B34">
-        <v>0.932022507</v>
+        <v>0.93086505588834012</v>
       </c>
       <c r="C34">
-        <v>0.89872292099999995</v>
+        <v>0.89543634201603328</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.93011785700000005</v>
+        <v>0.92928293210194202</v>
       </c>
       <c r="B35">
-        <v>0.93747263700000005</v>
+        <v>0.93707881889400846</v>
       </c>
       <c r="C35">
-        <v>0.91268809799999995</v>
+        <v>0.91172523488419399</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.94747818299999997</v>
+        <v>0.94724402577063027</v>
       </c>
       <c r="B36">
-        <v>0.95264899300000005</v>
+        <v>0.95258682340505529</v>
       </c>
       <c r="C36">
-        <v>0.92451824999999999</v>
+        <v>0.92399539732241309</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.93403206599999999</v>
+        <v>0.93402599211206705</v>
       </c>
       <c r="B37">
-        <v>0.93803969300000001</v>
+        <v>0.93809467236561572</v>
       </c>
       <c r="C37">
-        <v>0.91433736200000004</v>
+        <v>0.9143975816090123</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.95126349700000001</v>
+        <v>0.95135465195926561</v>
       </c>
       <c r="B38">
-        <v>0.953626953</v>
+        <v>0.95366201656934591</v>
       </c>
       <c r="C38">
-        <v>0.94251767399999997</v>
+        <v>0.94285411641485695</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.92680026400000004</v>
+        <v>0.92726213800307222</v>
       </c>
       <c r="B39">
-        <v>0.93257595599999998</v>
+        <v>0.93305578850407578</v>
       </c>
       <c r="C39">
-        <v>0.89639603800000001</v>
+        <v>0.89624389772194279</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.93551274799999995</v>
+        <v>0.93545253080955626</v>
       </c>
       <c r="B40">
-        <v>0.94185481400000004</v>
+        <v>0.9420832825612887</v>
       </c>
       <c r="C40">
-        <v>0.94537266499999995</v>
+        <v>0.94572428667300801</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.94482432000000005</v>
+        <v>0.9445482577377583</v>
       </c>
       <c r="B41">
-        <v>0.94569867299999999</v>
+        <v>0.94544231940698387</v>
       </c>
       <c r="C41">
-        <v>0.95416478800000004</v>
+        <v>0.95389947054469615</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.91588744300000002</v>
+        <v>0.91508995401326332</v>
       </c>
       <c r="B42">
-        <v>0.932435232</v>
+        <v>0.93183579756432977</v>
       </c>
       <c r="C42">
-        <v>0.94126016400000001</v>
+        <v>0.94057070425967138</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.93813344399999998</v>
+        <v>0.93827441744594431</v>
       </c>
       <c r="B43">
-        <v>0.94677646999999998</v>
+        <v>0.94681903206854767</v>
       </c>
       <c r="C43">
-        <v>0.94657996499999997</v>
+        <v>0.94654256439059381</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.92574139</v>
+        <v>0.92569016275143956</v>
       </c>
       <c r="B44">
-        <v>0.935473993</v>
+        <v>0.93556611376096976</v>
       </c>
       <c r="C44">
-        <v>0.90104280599999997</v>
+        <v>0.90213436284972603</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.95344390199999995</v>
+        <v>0.95338435722039228</v>
       </c>
       <c r="B45">
-        <v>0.96418304799999999</v>
+        <v>0.96417980251497715</v>
       </c>
       <c r="C45">
-        <v>0.97329604300000006</v>
+        <v>0.97265974983112768</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.99030235899999997</v>
+        <v>0.99029903896590243</v>
       </c>
       <c r="B46">
-        <v>0.98957834600000005</v>
+        <v>0.98722138071166732</v>
       </c>
       <c r="C46">
-        <v>0.78404013500000003</v>
+        <v>0.78420506751735486</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.93158142700000002</v>
+        <v>0.93216773117591734</v>
       </c>
       <c r="B47">
-        <v>0.93565178299999996</v>
+        <v>0.93638800140576195</v>
       </c>
       <c r="C47">
-        <v>0.90714872700000004</v>
+        <v>0.90813828121453277</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.95830096200000003</v>
+        <v>0.95808480654269368</v>
       </c>
       <c r="B48">
-        <v>0.96204756300000005</v>
+        <v>0.96188933873269589</v>
       </c>
       <c r="C48">
-        <v>0.95062748500000005</v>
+        <v>0.9511334826718012</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.95606303500000001</v>
+        <v>0.95602307592943281</v>
       </c>
       <c r="B49">
-        <v>0.95897452800000005</v>
+        <v>0.95896529617348902</v>
       </c>
       <c r="C49">
-        <v>0.91401560699999995</v>
+        <v>0.9145066378929273</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.94871839999999996</v>
+        <v>0.94873237701076496</v>
       </c>
       <c r="B50">
-        <v>0.95531953700000005</v>
+        <v>0.95525126680582817</v>
       </c>
       <c r="C50">
-        <v>0.96135756000000006</v>
+        <v>0.96093475361590064</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.97840227300000004</v>
+        <v>0.97830944623994898</v>
       </c>
       <c r="B51">
-        <v>0.98006970400000004</v>
+        <v>0.97960539588582629</v>
       </c>
       <c r="C51">
-        <v>0.98878191699999995</v>
+        <v>0.98859696243910944</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/low_noisy/results/ssim.xlsx
+++ b/data/output/low_noisy/results/ssim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\low_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB8712-5CCF-4E90-992E-D35212ED5CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA67CA-4DC7-49B1-9D31-88D0DCB80020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.93581348333930992</v>
+        <v>0.954977297</v>
       </c>
       <c r="B2">
-        <v>0.9402025439656736</v>
+        <v>0.96181926500000003</v>
       </c>
       <c r="C2">
-        <v>0.94069216562838898</v>
+        <v>0.97329331399999996</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
